--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2348271.357205223</v>
+        <v>2478129.879372538</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916857</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5020910.587151045</v>
+        <v>5296754.732488744</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>225.0806982601026</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -668,7 +670,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>227.0455002540596</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -865,13 +867,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>156.0665348042639</v>
+        <v>259.8889250792293</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>325.5800738246913</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>202.9118330715567</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>84.57525409799902</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>28.64436039545329</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>320.7046441476144</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>110.0188604092227</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>51.25395846644548</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>35.75633396116289</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>17.99687562196783</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1531,22 +1533,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>141.3509401177984</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>129.7139627068456</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1622,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1670,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>56.43458595607484</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>53.06991172717003</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1847,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773002</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>122.9742767430576</v>
+        <v>208.2631588479959</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2065,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2090,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2248,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>60.78001549303652</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>159.6574681744382</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,19 +2484,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>32.69681262526345</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>188.7973936038621</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2722,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>129.7139627068451</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>52.49195549286388</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2773,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2956,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>77.84041448886909</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>16.92574903169062</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3016,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>123.2901323038659</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.66258501924847</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>134.9254647561321</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3490,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3661,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>53.06991172717003</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3670,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3721,13 +3723,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.849228834493</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3791,10 +3793,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>53.76061563583719</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3803,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3901,10 +3903,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>54.18430635300722</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3916,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>81.4938028923543</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3964,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3980,10 +3982,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>10.32234044436612</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4034,7 +4036,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4138,13 +4140,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4153,7 +4155,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>39.86022305742068</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>81.4938028923543</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>358.9883481097479</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>324.8862793335753</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>293.0168985484239</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>263.2825577471231</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N2" t="n">
         <v>267.8706684926505</v>
@@ -4370,10 +4372,10 @@
         <v>1208.676101675288</v>
       </c>
       <c r="X2" t="n">
-        <v>789.5336382545983</v>
+        <v>1193.574042295002</v>
       </c>
       <c r="Y2" t="n">
-        <v>381.2475145542517</v>
+        <v>785.2879185946557</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>60.00734176206595</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>60.00734176206595</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="C4" t="n">
         <v>940.4401176967148</v>
@@ -4486,22 +4488,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>91.74450617142992</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>509.954387939391</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="M4" t="n">
-        <v>930.0072868842942</v>
+        <v>958.7861344791625</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1378.839033424066</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>1113.00182921349</v>
+        <v>1413.251543049194</v>
       </c>
       <c r="V4" t="n">
-        <v>1113.00182921349</v>
+        <v>1413.251543049194</v>
       </c>
       <c r="W4" t="n">
-        <v>1113.00182921349</v>
+        <v>1413.251543049194</v>
       </c>
       <c r="X4" t="n">
-        <v>1113.00182921349</v>
+        <v>1167.859788382606</v>
       </c>
       <c r="Y4" t="n">
-        <v>1113.00182921349</v>
+        <v>940.4401176967148</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1183.424247503185</v>
       </c>
       <c r="C5" t="n">
-        <v>1620.659365270951</v>
+        <v>745.2817746866085</v>
       </c>
       <c r="D5" t="n">
-        <v>1291.790603831868</v>
+        <v>713.4123939014571</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>683.6780531001564</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>255.8106235093641</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233709</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233709</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>480.1629125864607</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1104.26369663124</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1728.364480676019</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2437.152405109129</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2018.00994168844</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1609.723817988093</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>1364.551312986339</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>1258.094851822981</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>1163.004562969534</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>1068.884148296488</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>985.5003099126495</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>900.1152201788334</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>858.3795679950458</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>884.4432411555034</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>884.4432411555034</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>884.4432411555034</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1508.544025200282</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>2132.644809245061</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>2404.446551379515</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>2404.446551379515</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>2404.446551379515</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>2404.446551379515</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>2458.163891922238</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>2327.985248252839</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>2151.648701252808</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1952.531183314807</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>1767.208429048001</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>1612.340993286881</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>1485.855214066102</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>947.1238364150125</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>774.5621248982375</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>91.3608564523079</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>509.5707382202689</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>929.6236371651722</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1349.676536110076</v>
+        <v>1586.250411413399</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2005.919660639181</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609523</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>1611.753880486479</v>
+        <v>2095.080693055678</v>
       </c>
       <c r="U7" t="n">
-        <v>1611.753880486479</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="V7" t="n">
-        <v>1611.753880486479</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>1611.753880486479</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1366.362125819891</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>1138.942455134</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1353.076515494037</v>
+        <v>1785.732350522015</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.974446717864</v>
+        <v>1347.589877705439</v>
       </c>
       <c r="D8" t="n">
-        <v>890.3927724551322</v>
+        <v>911.6800928798832</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>477.9053480381784</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>454.0783224877902</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1812.237236626462</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1807.991516966519</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>70.40254395766848</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>394.9608689238808</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>394.9608689238808</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>394.9608689238808</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>992.2117929153466</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>452.1535503695694</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>872.2064493144727</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1291.875698540254</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>992.2117929153466</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>992.2117929153466</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>992.2117929153466</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>992.2117929153466</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1649.03826517876</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1630.859602934348</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1194.949818108793</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G11" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448088</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2262.917935035996</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2262.917935035996</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2262.917935035996</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035996</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869393</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3723.228786764881</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3503.16155963792</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3243.939256954936</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2881.322306888763</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2476.466852299796</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2057.324388879107</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1649.03826517876</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.13761321162089</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>76.13761321162089</v>
+        <v>147.8711371056732</v>
       </c>
       <c r="K12" t="n">
-        <v>76.13761321162089</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="L12" t="n">
-        <v>76.13761321162089</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="M12" t="n">
-        <v>76.13761321162089</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="N12" t="n">
-        <v>76.13761321162089</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="O12" t="n">
-        <v>1018.340576705429</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964015</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.6336502885522</v>
+        <v>3205.876241053794</v>
       </c>
       <c r="C13" t="n">
-        <v>754.0719387717771</v>
+        <v>3033.314529537019</v>
       </c>
       <c r="D13" t="n">
-        <v>588.1939459732998</v>
+        <v>3033.314529537019</v>
       </c>
       <c r="E13" t="n">
-        <v>418.435942224037</v>
+        <v>3033.314529537019</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7288881857932</v>
+        <v>2890.535802145303</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162089</v>
+        <v>2724.944527171131</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162089</v>
+        <v>2585.042352861506</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162089</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763108</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412417</v>
+        <v>4953.800644836977</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990873</v>
+        <v>4707.921198415433</v>
       </c>
       <c r="U13" t="n">
-        <v>2009.243407243978</v>
+        <v>4429.488197668538</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.287899114408</v>
+        <v>4142.532689538969</v>
       </c>
       <c r="W13" t="n">
-        <v>1591.263694360019</v>
+        <v>3870.506285125261</v>
       </c>
       <c r="X13" t="n">
-        <v>1345.871939693431</v>
+        <v>3625.114530458673</v>
       </c>
       <c r="Y13" t="n">
-        <v>1118.452269007539</v>
+        <v>3397.694859772781</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2213.229876662986</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1775.08740384641</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1339.177619020854</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>905.4028741791492</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>477.535444588357</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>76.13761321162089</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1320.714971542188</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1320.714971542188</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M14" t="n">
-        <v>1320.714971542188</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N14" t="n">
-        <v>1320.714971542188</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035996</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869393</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.228786764881</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3723.228786764881</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3464.006484081898</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3101.389534015724</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2696.534079426758</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>2639.529447147894</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2639.529447147894</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>76.13761321162089</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>400.6959381778332</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1081.429458248211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1081.429458248211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1081.429458248211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1081.429458248211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1081.429458248211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.6336502885522</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C16" t="n">
-        <v>754.0719387717771</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>588.1939459732998</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>418.435942224037</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7288881857932</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13761321162089</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162089</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2674.558054071736</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2428.678607650191</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2150.245606903296</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1863.290098773727</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1591.263694360019</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X16" t="n">
-        <v>1345.871939693431</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y16" t="n">
-        <v>1118.452269007539</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5522,43 +5524,43 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N17" t="n">
-        <v>4294.449917128814</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5698,19 +5700,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2594.704009018975</v>
+        <v>2349.312254352388</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272081</v>
+        <v>2070.879253605493</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1783.923745475924</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X19" t="n">
         <v>1511.897341062215</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436394</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5756,46 +5758,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M20" t="n">
-        <v>3603.973621145286</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>1176.997895781659</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>1004.436184264884</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>838.5581914664062</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>668.8001877171434</v>
       </c>
       <c r="F22" t="n">
-        <v>242.1630145804051</v>
+        <v>492.0931336788997</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1368.816514500646</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5989,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2093.658967439508</v>
       </c>
       <c r="N23" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4552.836435941488</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>871.6588228237728</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>699.0971113069977</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="E25" t="n">
-        <v>418.8700686186489</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F25" t="n">
-        <v>242.1630145804051</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6184,13 +6186,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1536.288866895239</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1290.897112228652</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1063.47744154276</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,28 +6302,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1004.611946844417</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C28" t="n">
-        <v>832.0502353276421</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D28" t="n">
-        <v>666.1722425291648</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E28" t="n">
-        <v>496.4142387799021</v>
+        <v>575.5833740375847</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>398.8763199993409</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>233.2850450251686</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6412,22 +6414,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2506.656904206056</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2228.223903459162</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1941.268395329592</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1669.241990915884</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X28" t="n">
-        <v>1423.850236249296</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y28" t="n">
-        <v>1196.430565563404</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2093.658967439508</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3219.389950875955</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4199.569617446262</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5027.879492279658</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1090.187678435286</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C31" t="n">
-        <v>917.6259669185112</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D31" t="n">
-        <v>751.7479741200339</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>5095.945297345354</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>5095.945297345354</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>4850.06585092381</v>
       </c>
       <c r="U31" t="n">
-        <v>2313.799635050031</v>
+        <v>4571.632850176916</v>
       </c>
       <c r="V31" t="n">
-        <v>2026.844126920461</v>
+        <v>4284.677342047346</v>
       </c>
       <c r="W31" t="n">
-        <v>1754.817722506753</v>
+        <v>4012.650937633638</v>
       </c>
       <c r="X31" t="n">
-        <v>1509.425967840165</v>
+        <v>3767.25918296705</v>
       </c>
       <c r="Y31" t="n">
-        <v>1282.006297154273</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.913654892426</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.644638328873</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4482.954513162269</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5029.453299120864</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6880,16 +6882,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
         <v>1889.413325832886</v>
@@ -6914,7 +6916,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6941,13 +6943,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O35" t="n">
         <v>3569.079287993934</v>
@@ -6962,22 +6964,22 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7014,28 +7016,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7117,25 +7119,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2642.287896536276</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2396.408450114731</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2117.975449367836</v>
+        <v>2177.511286811513</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y37" t="n">
         <v>1373.137619601648</v>
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7178,46 +7180,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1601.005850966133</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>128.3245134312372</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L39" t="n">
-        <v>128.3245134312372</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M39" t="n">
-        <v>128.3245134312372</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N39" t="n">
-        <v>1362.151784991544</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.327823655249</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>832.0502353276421</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C40" t="n">
-        <v>832.0502353276421</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>666.1722425291648</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>496.4142387799021</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
         <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7369,13 +7371,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y40" t="n">
-        <v>1023.868854046629</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2066.867035767074</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1628.724562950498</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2262.917935035995</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M41" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3723.22878676488</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3668.925134607469</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3306.308184541295</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2901.452729952329</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2901.452729952329</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2493.166606251982</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>76.13761321162086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>76.13761321162086</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>756.8711332819981</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>756.8711332819981</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>756.8711332819981</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>756.8711332819981</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>756.8711332819981</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964015</v>
+        <v>1272.606004876648</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1155.195773823502</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>982.6340623067273</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>816.75606950825</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E43" t="n">
-        <v>646.9980657589872</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>470.2910117207434</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>304.699736746571</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.138033117789</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2429.82106049925</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2151.388059752355</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1864.432551622785</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1592.406147209077</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1347.01439254249</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1347.01439254249</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2066.867035767074</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>1628.724562950498</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>511.3923006645387</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L44" t="n">
-        <v>511.3923006645387</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M44" t="n">
-        <v>925.0107940069742</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>1867.213757500782</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>2809.41672099459</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3637.726595827986</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3796.454054071583</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3576.386826944621</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3317.164524261638</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3317.164524261638</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>2912.309069672671</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2493.166606251982</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2493.166606251982</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>680.001633102282</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1155.195773823502</v>
+        <v>790.3368563937674</v>
       </c>
       <c r="C46" t="n">
-        <v>982.6340623067273</v>
+        <v>617.7751448769924</v>
       </c>
       <c r="D46" t="n">
-        <v>816.75606950825</v>
+        <v>617.7751448769924</v>
       </c>
       <c r="E46" t="n">
-        <v>646.9980657589872</v>
+        <v>448.0171411277296</v>
       </c>
       <c r="F46" t="n">
-        <v>470.2910117207434</v>
+        <v>448.0171411277296</v>
       </c>
       <c r="G46" t="n">
-        <v>304.699736746571</v>
+        <v>282.4258661535573</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7975624369455</v>
+        <v>142.5236918439318</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.138033117789</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T46" t="n">
-        <v>2429.82106049925</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U46" t="n">
-        <v>2151.388059752355</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="V46" t="n">
-        <v>1864.432551622785</v>
+        <v>1726.993304878942</v>
       </c>
       <c r="W46" t="n">
-        <v>1592.406147209077</v>
+        <v>1454.966900465234</v>
       </c>
       <c r="X46" t="n">
-        <v>1347.01439254249</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y46" t="n">
-        <v>1347.01439254249</v>
+        <v>982.1554751127546</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
@@ -8055,28 +8057,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>58.3846844139612</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -8146,13 +8148,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>321.5599966225773</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8222,19 +8224,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>434.0712383807915</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,28 +8294,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>274.547214277226</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>57.99715944515107</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>299.7839758982045</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8459,19 +8461,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>17.17305800913124</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>239.5100572483138</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8693,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113938</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>19.7440643176121</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>63.76270834200545</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8927,19 +8929,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>817.497647351161</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1082.305540278395</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,16 +9172,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>168.8387779969839</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9243,10 +9245,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>379.5169886652535</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9404,22 +9406,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9477,16 +9479,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>279.5090739465429</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>500.2430848324429</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>395.0015281256929</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>315.3936483072348</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10130,10 +10132,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.02274874679006</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10361,7 +10363,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10370,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>84.43304486678335</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,16 +10591,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1082.305540278396</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10662,31 +10664,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,13 +10828,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>231.4545770548061</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>926.4397398113929</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>327.8732572545621</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>379.5169886652534</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>531.8762684426497</v>
       </c>
       <c r="M44" t="n">
-        <v>417.7964579216519</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>255.8000219838295</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>415.7641724664431</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>33.58904338006289</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>358.5164528304076</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>120.4463752142717</v>
+        <v>35.15749310933342</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>114.1599680048248</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>4.277894049992426</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3636110865067</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>80.50874676570928</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>8.789189859684171</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>190.9286964644654</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>90.22000922290103</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>4.277894049991218</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>140.7232059832936</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.2962451445398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25679,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>202.8694640203161</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>161.926849064975</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.49301463363524</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>47.91312667565073</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>161.926849064975</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>440042.7592964713</v>
+        <v>448497.6409119881</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>440042.7592964713</v>
+        <v>450019.9609426052</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>373602.2002391117</v>
+        <v>462070.1204252882</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>373602.2002391116</v>
+        <v>462070.1204252882</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>462070.1204252881</v>
+        <v>462070.1204252882</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>462070.1204252881</v>
+        <v>462070.1204252882</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>462070.1204252881</v>
+        <v>462070.1204252882</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>462070.1204252882</v>
+        <v>462070.1204252881</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>373602.2002391117</v>
+        <v>462070.1204252881</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>373602.2002391117</v>
+        <v>462070.1204252882</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26316,19 @@
         <v>522743.6368931483</v>
       </c>
       <c r="C2" t="n">
-        <v>522743.6368931483</v>
+        <v>522743.6368931484</v>
       </c>
       <c r="D2" t="n">
         <v>522743.6368931482</v>
       </c>
       <c r="E2" t="n">
-        <v>415335.8231724243</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="F2" t="n">
-        <v>415335.8231724243</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="G2" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="H2" t="n">
         <v>513686.1445339185</v>
@@ -26341,19 +26343,19 @@
         <v>513686.1445339185</v>
       </c>
       <c r="L2" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="M2" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="N2" t="n">
         <v>513686.1445339185</v>
       </c>
       <c r="O2" t="n">
-        <v>415335.8231724243</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="P2" t="n">
-        <v>415335.8231724243</v>
+        <v>513686.1445339185</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501621</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998273</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636907</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877254</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622285</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154981.0317940154</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>44115.4210344848</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="F4" t="n">
-        <v>44115.4210344848</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962271</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="J4" t="n">
+        <v>54561.82510962277</v>
+      </c>
+      <c r="K4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="K4" t="n">
-        <v>54561.82510962275</v>
-      </c>
       <c r="L4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
         <v>54561.82510962277</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="O4" t="n">
-        <v>44115.42103448478</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="P4" t="n">
-        <v>44115.42103448479</v>
+        <v>54561.82510962277</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="H5" t="n">
         <v>77718.23860579252</v>
-      </c>
-      <c r="H5" t="n">
-        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127430.8684450515</v>
+        <v>127430.8684450516</v>
       </c>
       <c r="C6" t="n">
-        <v>269622.1691047615</v>
+        <v>229218.6233961142</v>
       </c>
       <c r="D6" t="n">
-        <v>269622.1691047614</v>
+        <v>288993.3225356186</v>
       </c>
       <c r="E6" t="n">
-        <v>155878.5211750036</v>
+        <v>199050.9715974535</v>
       </c>
       <c r="F6" t="n">
-        <v>313355.8160971077</v>
+        <v>381406.0808185032</v>
       </c>
       <c r="G6" t="n">
-        <v>291906.2722121341</v>
+        <v>381406.0808185033</v>
       </c>
       <c r="H6" t="n">
         <v>381406.0808185033</v>
       </c>
       <c r="I6" t="n">
-        <v>381406.0808185032</v>
+        <v>381406.0808185033</v>
       </c>
       <c r="J6" t="n">
         <v>270391.615473513</v>
       </c>
       <c r="K6" t="n">
+        <v>328360.2261797307</v>
+      </c>
+      <c r="L6" t="n">
+        <v>372013.7790918809</v>
+      </c>
+      <c r="M6" t="n">
+        <v>229205.9098805156</v>
+      </c>
+      <c r="N6" t="n">
         <v>381406.0808185032</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
+        <v>381406.080818503</v>
+      </c>
+      <c r="P6" t="n">
         <v>381406.0808185033</v>
-      </c>
-      <c r="M6" t="n">
-        <v>249969.8336610835</v>
-      </c>
-      <c r="N6" t="n">
-        <v>381406.0808185033</v>
-      </c>
-      <c r="O6" t="n">
-        <v>313355.8160971077</v>
-      </c>
-      <c r="P6" t="n">
-        <v>313355.8160971076</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>196.9558765199561</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27388,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>196.5432550408248</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>119.5821359351618</v>
+        <v>15.75974566019642</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27600,10 +27602,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>105.9706131526086</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>194.472019991412</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27679,10 +27681,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>158.8453978593303</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>247.0043103439724</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101.3319306324443</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.14113987318342</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>287.3649926537461</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>119.5821359351618</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>128.4628789093296</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,7 +34710,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
@@ -34775,28 +34777,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>58.3846844139612</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -34866,13 +34868,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>321.5599966225773</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34942,19 +34944,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>434.0712383807915</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>274.547214277226</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>57.99715944515107</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>299.7839758982045</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35179,19 +35181,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>17.17305800913124</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>239.5100572483138</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113938</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>19.7440643176121</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>63.76270834200545</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080414</v>
@@ -35580,13 +35582,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>817.497647351161</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1082.305540278395</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,16 +35892,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>168.8387779969839</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>379.5169886652535</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36124,22 +36126,22 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>279.5090739465429</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>500.2430848324429</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>395.0015281256929</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>315.3936483072348</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.02274874679006</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37081,16 +37083,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157532</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>84.43304486678335</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,16 +37311,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1082.305540278396</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,13 +37548,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>231.4545770548061</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>926.4397398113929</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>327.8732572545621</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>379.5169886652534</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>531.8762684426497</v>
       </c>
       <c r="M44" t="n">
-        <v>417.7964579216519</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38098,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>255.8000219838295</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645627</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2478129.879372538</v>
+        <v>2477604.697003506</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216495</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916857</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>227.0455002540596</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>12.42921635633963</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>259.8889250792293</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>173.5591556145158</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>319.9008577171031</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>202.9118330715567</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1062,16 +1062,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>114.3486586083472</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1110,10 +1110,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>28.64436039545329</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1144,16 +1144,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>110.0188604092227</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>63.71968882474101</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1293,10 +1293,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>35.75633396116289</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454846</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1533,22 +1533,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>141.3509401177984</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948835</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1660,7 +1660,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>124.4124267272028</v>
       </c>
       <c r="C16" t="n">
-        <v>53.06991172717003</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1815,7 +1815,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773002</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>208.2631588479959</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2092,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>159.6574681744382</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2484,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2538,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>188.7973936038621</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>129.7139627068451</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2775,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.92574903169062</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3246,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>123.2901323038659</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3268,7 +3268,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884117</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3444,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U37" t="n">
-        <v>134.9254647561321</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>53.06991172717003</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3903,10 +3903,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>54.18430635300722</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>240.273786227905</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3985,7 +3985,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864832</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4140,22 +4140,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I46" t="n">
-        <v>39.86022305742068</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358.9883481097479</v>
+        <v>1238.166266010416</v>
       </c>
       <c r="C2" t="n">
-        <v>324.8862793335753</v>
+        <v>1204.064197234244</v>
       </c>
       <c r="D2" t="n">
-        <v>293.0168985484239</v>
+        <v>775.482522971512</v>
       </c>
       <c r="E2" t="n">
-        <v>263.2825577471231</v>
+        <v>346.9008487087803</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4330,22 +4330,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1684.628666084115</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1684.628666084115</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1684.628666084115</v>
       </c>
       <c r="W2" t="n">
-        <v>1208.676101675288</v>
+        <v>1683.813615535552</v>
       </c>
       <c r="X2" t="n">
-        <v>1193.574042295002</v>
+        <v>1668.711556155267</v>
       </c>
       <c r="Y2" t="n">
-        <v>785.2879185946557</v>
+        <v>1664.465836495324</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.4401176967148</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>538.7332355342593</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>958.7861344791625</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1378.839033424066</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
         <v>1697.183430080417</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.251543049194</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1413.251543049194</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>1413.251543049194</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X4" t="n">
-        <v>1167.859788382606</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y4" t="n">
-        <v>940.4401176967148</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1183.424247503185</v>
+        <v>1267.076121319351</v>
       </c>
       <c r="C5" t="n">
-        <v>745.2817746866085</v>
+        <v>943.9439418071256</v>
       </c>
       <c r="D5" t="n">
-        <v>713.4123939014571</v>
+        <v>508.0341569815702</v>
       </c>
       <c r="E5" t="n">
-        <v>683.6780531001564</v>
+        <v>74.25941213986535</v>
       </c>
       <c r="F5" t="n">
-        <v>255.8106235093641</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="G5" t="n">
-        <v>50.84917596233709</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233709</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947709</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947709</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43238658947709</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>50.43238658947709</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="M5" t="n">
-        <v>480.1629125864607</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="N5" t="n">
-        <v>1104.26369663124</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="O5" t="n">
-        <v>1728.364480676019</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="P5" t="n">
-        <v>2352.465264720798</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720798</v>
+        <v>2352.4652647208</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657692</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.967455657692</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.967455657692</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.967455657692</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.152405109129</v>
+        <v>2116.76387488489</v>
       </c>
       <c r="X5" t="n">
-        <v>2018.00994168844</v>
+        <v>2101.661815504605</v>
       </c>
       <c r="Y5" t="n">
-        <v>1609.723817988093</v>
+        <v>1693.375691804259</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1364.551312986339</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>1258.094851822981</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>1163.004562969534</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>1068.884148296488</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>985.5003099126495</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>900.1152201788334</v>
+        <v>92.16803877326467</v>
       </c>
       <c r="H6" t="n">
-        <v>858.3795679950458</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I6" t="n">
-        <v>884.4432411555034</v>
+        <v>76.49605974993474</v>
       </c>
       <c r="J6" t="n">
-        <v>884.4432411555034</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>884.4432411555034</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>1508.544025200282</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>2132.644809245061</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>2404.446551379515</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>2404.446551379515</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.446551379515</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>2404.446551379515</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>2521.619329473855</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>2458.163891922238</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>2327.985248252839</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>2151.648701252808</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1952.531183314807</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>1767.208429048001</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>1612.340993286881</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>1485.855214066102</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201358</v>
+        <v>593.0357356940413</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845833</v>
+        <v>420.4740241772662</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>254.5960313787889</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>254.5960313787889</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>254.5960313787889</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>254.5960313787889</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947709</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413399</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639181</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609523</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179226</v>
+        <v>2500.201508179229</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477223</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055678</v>
+        <v>2095.080693055681</v>
       </c>
       <c r="U7" t="n">
-        <v>2066.146995686534</v>
+        <v>1816.647692308786</v>
       </c>
       <c r="V7" t="n">
-        <v>2066.146995686534</v>
+        <v>1529.692184179216</v>
       </c>
       <c r="W7" t="n">
-        <v>1794.120591272825</v>
+        <v>1257.665779765508</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606237</v>
+        <v>1012.27402509892</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>784.8543544130284</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.732350522015</v>
+        <v>2479.623634536778</v>
       </c>
       <c r="C8" t="n">
-        <v>1347.589877705439</v>
+        <v>2041.481161720201</v>
       </c>
       <c r="D8" t="n">
-        <v>911.6800928798832</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9053480381784</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>454.0783224877902</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4813,7 +4813,7 @@
         <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
         <v>1149.495958523325</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2522.045630570072</v>
       </c>
       <c r="U8" t="n">
-        <v>2190.771296621483</v>
+        <v>2522.045630570072</v>
       </c>
       <c r="V8" t="n">
-        <v>1828.15434655531</v>
+        <v>2522.045630570072</v>
       </c>
       <c r="W8" t="n">
-        <v>1827.339296006747</v>
+        <v>2521.230580021509</v>
       </c>
       <c r="X8" t="n">
-        <v>1812.237236626462</v>
+        <v>2506.128520641224</v>
       </c>
       <c r="Y8" t="n">
-        <v>1807.991516966519</v>
+        <v>2501.882800981281</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>70.40254395766848</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.9608689238808</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>394.9608689238808</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>394.9608689238808</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1055.800923465659</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>741.4772326516127</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -5001,13 +5001,13 @@
         <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
         <v>391.8077842004234</v>
@@ -5080,7 +5080,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
         <v>3363.485741837043</v>
@@ -5120,25 +5120,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>147.8711371056732</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
         <v>1648.327823655249</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3205.876241053794</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>3033.314529537019</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D13" t="n">
-        <v>3033.314529537019</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E13" t="n">
-        <v>3033.314529537019</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F13" t="n">
-        <v>2890.535802145303</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G13" t="n">
-        <v>2724.944527171131</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>2585.042352861506</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>4953.800644836977</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>4707.921198415433</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>4429.488197668538</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>4142.532689538969</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>3870.506285125261</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>3625.114530458673</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>3397.694859772781</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5284,13 +5284,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2443.348304557486</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
         <v>3569.079287993933</v>
@@ -5317,13 +5317,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5360,16 +5360,16 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
         <v>1107.588885023173</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1062.363260807472</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>843.1660143917135</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G16" t="n">
         <v>330.8229638057297</v>
@@ -5463,25 +5463,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W16" t="n">
-        <v>1726.993304878938</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X16" t="n">
-        <v>1481.601550212351</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y16" t="n">
-        <v>1254.181879526459</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="17">
@@ -5515,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2178.821488698831</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
         <v>5113.04201353898</v>
@@ -5597,22 +5597,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
         <v>242.1630145804051</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2349.312254352388</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2070.879253605493</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1783.923745475924</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1511.897341062215</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5758,10 +5758,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5779,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1176.997895781659</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>1004.436184264884</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>838.5581914664062</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>668.8001877171434</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>492.0931336788997</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1614.208269167233</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1368.816514500646</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1368.816514500646</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5989,16 +5989,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2093.658967439508</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>871.6588228237728</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>699.0971113069977</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>533.2191185085204</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1536.288866895239</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1290.897112228652</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1063.47744154276</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>1431.851786213076</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1083.7810821021</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>911.2193705853248</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>745.3413777868475</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>575.5833740375847</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>398.8763199993409</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>233.2850450251686</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1748.411126173566</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1503.019371506979</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1275.599700821087</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6472,7 +6472,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5095.945297345354</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5095.945297345354</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>4850.06585092381</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.632850176916</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4284.677342047346</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>4012.650937633638</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3767.25918296705</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,10 +6776,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
         <v>1107.588885023173</v>
@@ -6882,16 +6882,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
         <v>1889.413325832886</v>
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6943,13 +6943,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2443.348304557487</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
         <v>3569.079287993934</v>
@@ -6982,7 +6982,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
         <v>1107.588885023173</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U37" t="n">
-        <v>2177.511286811513</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V37" t="n">
-        <v>1890.555778681944</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
-        <v>1618.529374268236</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1373.137619601648</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7174,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>205.2000859692949</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>1039.550377927473</v>
       </c>
       <c r="L38" t="n">
-        <v>1601.005850966133</v>
+        <v>2114.610344180332</v>
       </c>
       <c r="M38" t="n">
-        <v>2758.053686176684</v>
+        <v>3271.658179390883</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7219,7 +7219,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1062.363260807472</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1726.993304878938</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1481.601550212351</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1254.181879526459</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7417,10 +7417,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423628</v>
@@ -7493,22 +7493,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1272.606004876648</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>639.1929661716164</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
         <v>1221.073045167952</v>
@@ -7648,16 +7648,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423628</v>
@@ -7681,19 +7681,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.3368563937674</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>617.7751448769924</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>617.7751448769924</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>448.0171411277296</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F46" t="n">
-        <v>448.0171411277296</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G46" t="n">
-        <v>282.4258661535573</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H46" t="n">
-        <v>142.5236918439318</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7815,43 +7815,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755407</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008512</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878942</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.966900465234</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.575145798646</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1554751127546</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8063,13 +8063,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8145,13 +8145,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>321.5599966225773</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>434.0712383807915</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684636</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684638</v>
+        <v>72.80589558611246</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8294,19 +8294,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684636</v>
+        <v>30.91440664741822</v>
       </c>
       <c r="M6" t="n">
-        <v>630.4048323684635</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>274.547214277226</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8385,7 +8385,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>299.7839758982045</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238407</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8461,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>145.5272350047205</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>17.17305800913124</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>19.7440643176121</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8932,16 +8932,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1082.305540278395</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9008,19 +9008,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>168.8387779969839</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9184,10 +9184,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>379.5169886652535</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9406,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9479,16 +9479,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>279.5090739465429</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>500.2430848324429</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9713,19 +9713,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10366,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10591,16 +10591,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1082.305540278396</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>103.9790360591064</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>231.4545770548061</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>379.5169886652534</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>531.8762684426497</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>33.58904338006289</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.48800580459444</v>
       </c>
       <c r="C16" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>35.15749310933342</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>4.277894049992426</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>80.50874676570928</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>8.789189859684171</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4.277894049991218</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U37" t="n">
-        <v>140.7232059832936</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>113.8761173587629</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I46" t="n">
-        <v>47.91312667565073</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448497.6409119881</v>
+        <v>448497.6409119882</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>462070.1204252882</v>
+        <v>462070.1204252881</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>462070.1204252881</v>
+        <v>462070.1204252882</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>462070.1204252882</v>
+        <v>462070.1204252881</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>462070.1204252881</v>
+        <v>462070.1204252882</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>462070.1204252882</v>
+        <v>462070.1204252881</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>522743.6368931483</v>
       </c>
       <c r="C2" t="n">
-        <v>522743.6368931484</v>
+        <v>522743.6368931482</v>
       </c>
       <c r="D2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931483</v>
       </c>
       <c r="E2" t="n">
+        <v>513686.1445339184</v>
+      </c>
+      <c r="F2" t="n">
         <v>513686.1445339185</v>
-      </c>
-      <c r="F2" t="n">
-        <v>513686.1445339184</v>
       </c>
       <c r="G2" t="n">
         <v>513686.1445339185</v>
@@ -26346,7 +26346,7 @@
         <v>513686.1445339185</v>
       </c>
       <c r="M2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="N2" t="n">
         <v>513686.1445339185</v>
@@ -26368,16 +26368,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501621</v>
+        <v>66587.76789501635</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998273</v>
+        <v>11527.59554998258</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,16 +26392,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877254</v>
+        <v>53045.8546387727</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622285</v>
+        <v>9392.301726622163</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.277175147622946e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>154981.0317940154</v>
+        <v>154981.0317940153</v>
       </c>
       <c r="D4" t="n">
-        <v>148010.1942457892</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="F4" t="n">
+        <v>54561.8251096228</v>
+      </c>
+      <c r="G4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="H4" t="n">
         <v>54561.82510962277</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="J4" t="n">
         <v>54561.82510962275</v>
-      </c>
-      <c r="H4" t="n">
-        <v>54561.82510962271</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54561.82510962275</v>
-      </c>
-      <c r="J4" t="n">
-        <v>54561.82510962277</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="M4" t="n">
+        <v>54561.82510962273</v>
+      </c>
+      <c r="N4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="M4" t="n">
-        <v>54561.82510962277</v>
-      </c>
-      <c r="N4" t="n">
-        <v>54561.82510962277</v>
-      </c>
       <c r="O4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="P4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962273</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800259</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127430.8684450516</v>
+        <v>127430.8684450515</v>
       </c>
       <c r="C6" t="n">
-        <v>229218.6233961142</v>
+        <v>229218.623396114</v>
       </c>
       <c r="D6" t="n">
-        <v>288993.3225356186</v>
+        <v>288993.3225356189</v>
       </c>
       <c r="E6" t="n">
-        <v>199050.9715974535</v>
+        <v>199027.7472580707</v>
       </c>
       <c r="F6" t="n">
-        <v>381406.0808185032</v>
+        <v>381382.8564791206</v>
       </c>
       <c r="G6" t="n">
-        <v>381406.0808185033</v>
+        <v>381382.8564791205</v>
       </c>
       <c r="H6" t="n">
-        <v>381406.0808185033</v>
+        <v>381382.8564791205</v>
       </c>
       <c r="I6" t="n">
-        <v>381406.0808185033</v>
+        <v>381382.8564791206</v>
       </c>
       <c r="J6" t="n">
-        <v>270391.615473513</v>
+        <v>270368.3911341304</v>
       </c>
       <c r="K6" t="n">
-        <v>328360.2261797307</v>
+        <v>328337.0018403478</v>
       </c>
       <c r="L6" t="n">
-        <v>372013.7790918809</v>
+        <v>371990.5547524985</v>
       </c>
       <c r="M6" t="n">
-        <v>229205.9098805156</v>
+        <v>229182.685541133</v>
       </c>
       <c r="N6" t="n">
-        <v>381406.0808185032</v>
+        <v>381382.8564791205</v>
       </c>
       <c r="O6" t="n">
-        <v>381406.080818503</v>
+        <v>381382.8564791205</v>
       </c>
       <c r="P6" t="n">
-        <v>381406.0808185033</v>
+        <v>381382.8564791206</v>
       </c>
     </row>
   </sheetData>
@@ -26697,10 +26697,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684636</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.096468934528683e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483593</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939328</v>
+        <v>37.1103742393928</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768882</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483593</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939328</v>
+        <v>37.1103742393928</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768882</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483593</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939328</v>
+        <v>37.1103742393928</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768882</v>
@@ -27384,19 +27384,19 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>7.254829457195569</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.14113987318342</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>196.5432550408248</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>205.4373384993521</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27441,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>15.75974566019642</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>51.58631836451698</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>113.8601903713079</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>194.472019991412</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27678,10 +27678,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>24.15449395818203</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>247.0043103439724</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>287.3649926537461</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>154.1468660309507</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>128.4628789093296</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>117.7661826744371</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28332,13 +28332,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.360392837795221e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-7.365409973740516e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30762,7 +30762,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-7.713553933517062e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34783,13 +34783,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>321.5599966225773</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>434.0712383807915</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684636</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684638</v>
+        <v>72.80589558611246</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35011,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684636</v>
+        <v>30.91440664741822</v>
       </c>
       <c r="M6" t="n">
-        <v>630.4048323684635</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>274.547214277226</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35105,16 +35105,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>299.7839758982045</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238407</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35181,10 +35181,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>145.5272350047205</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>17.17305800913124</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>19.7440643176121</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35582,13 +35582,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1082.305540278395</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35728,19 +35728,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>168.8387779969839</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35904,10 +35904,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>379.5169886652535</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36126,13 +36126,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36199,16 +36199,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>279.5090739465429</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>500.2430848324429</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36840,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37086,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1082.305540278396</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>103.9790360591064</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>231.4545770548061</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>379.5169886652534</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>531.8762684426497</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38183,7 +38183,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645627</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
